--- a/data-raw/metadata/yuba_recapture_metadata.xlsx
+++ b/data-raw/metadata/yuba_recapture_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/jpe-yuba-edi/data-raw/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/jpe-yuba-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB6D332-711B-9D40-90C2-178CE52B499D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3EE8A7-2033-6849-82ED-6FEE429032C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46900" yWindow="5800" windowWidth="28800" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -199,9 +199,6 @@
     <t>Yuba River RST program</t>
   </si>
   <si>
-    <t>projectDescriptionID</t>
-  </si>
-  <si>
     <t>mort</t>
   </si>
   <si>
@@ -320,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -333,12 +330,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,27 +552,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z986"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="36" style="9" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="16" style="9" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="9" customWidth="1"/>
-    <col min="12" max="13" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="26" width="19.6640625" style="9" customWidth="1"/>
-    <col min="27" max="16384" width="11.1640625" style="9"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" customWidth="1"/>
+    <col min="12" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="26" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -655,7 +650,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="10"/>
+      <c r="L2" s="9"/>
       <c r="M2" s="8"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -693,7 +688,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="8"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="10"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="8"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -731,7 +726,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="8"/>
       <c r="K4" s="7"/>
-      <c r="L4" s="10"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="8"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -828,7 +823,7 @@
         <v>41</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>14</v>
@@ -866,7 +861,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>14</v>
@@ -904,7 +899,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>14</v>
@@ -939,10 +934,10 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>14</v>
@@ -1025,10 +1020,10 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>28</v>
@@ -1121,14 +1116,18 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="D14" s="7"/>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1175,10 +1174,10 @@
         <v>37</v>
       </c>
       <c r="K15" s="7"/>
-      <c r="L15" s="11">
+      <c r="L15" s="10">
         <v>44946.375659722224</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="10">
         <v>45058.370104166665</v>
       </c>
       <c r="N15" s="6"/>
@@ -1200,7 +1199,7 @@
         <v>38</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>14</v>
@@ -1238,7 +1237,7 @@
         <v>39</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>14</v>
@@ -1276,7 +1275,7 @@
         <v>40</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>14</v>
@@ -1314,7 +1313,7 @@
         <v>42</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>14</v>
@@ -1352,7 +1351,7 @@
         <v>43</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>14</v>
@@ -1390,7 +1389,7 @@
         <v>44</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>14</v>
@@ -28476,8 +28475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28530,7 +28529,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>

--- a/data-raw/metadata/yuba_recapture_metadata.xlsx
+++ b/data-raw/metadata/yuba_recapture_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/jpe-yuba-edi/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3EE8A7-2033-6849-82ED-6FEE429032C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A62BA8CB-5CCE-9B4E-9D70-756B442F9877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46900" yWindow="5800" windowWidth="28800" windowHeight="16540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46900" yWindow="5800" windowWidth="28800" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="68">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -199,13 +199,7 @@
     <t>Yuba River RST program</t>
   </si>
   <si>
-    <t>mort</t>
-  </si>
-  <si>
     <t>totalLength</t>
-  </si>
-  <si>
-    <t>actualCountID</t>
   </si>
   <si>
     <t>Run as assigned at the time of the capture. Levels = NA</t>
@@ -217,13 +211,7 @@
     <t>Life stage of the fish. Levels = c("Not recorded", "Silvery parr", "Parr")</t>
   </si>
   <si>
-    <t>Whether or not the fish was alive. Levels = c("No", "Yes")</t>
-  </si>
-  <si>
     <t>Total length of the fish measured in millimeters</t>
-  </si>
-  <si>
-    <t>Code referring to whether the count (n) is an actual count or estimate. Levels = (1)</t>
   </si>
   <si>
     <t>Work that was done during visit to trap. Levels = c("Continue trapping", "Unplanned restart", "End trapping")</t>
@@ -550,11 +538,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z986"/>
+  <dimension ref="A1:Z984"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -823,7 +811,7 @@
         <v>41</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>14</v>
@@ -861,7 +849,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>14</v>
@@ -899,7 +887,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>14</v>
@@ -934,28 +922,38 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="I10" s="7"/>
       <c r="J10" s="8"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="L10" s="8">
+        <v>38</v>
+      </c>
+      <c r="M10" s="8">
+        <v>74</v>
+      </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -972,10 +970,10 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>27</v>
+      <c r="B11" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>28</v>
@@ -999,10 +997,10 @@
       <c r="J11" s="8"/>
       <c r="K11" s="7"/>
       <c r="L11" s="8">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="M11" s="8">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -1020,10 +1018,10 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>64</v>
+      <c r="B12" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>28</v>
@@ -1038,19 +1036,19 @@
         <v>28</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="8"/>
       <c r="K12" s="7"/>
       <c r="L12" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="8">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -1068,37 +1066,33 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>28</v>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8" t="s">
+        <v>37</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>51</v>
+      <c r="K13" s="7"/>
+      <c r="L13" s="10">
+        <v>44946.375659722224</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="8">
-        <v>1</v>
-      </c>
-      <c r="M13" s="8">
-        <v>37</v>
+      <c r="M13" s="10">
+        <v>45058.370104166665</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -1116,17 +1110,19 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>65</v>
+      <c r="B14" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="E14" s="6" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1152,34 +1148,28 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="J15" s="8"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="10">
-        <v>44946.375659722224</v>
-      </c>
-      <c r="M15" s="10">
-        <v>45058.370104166665</v>
-      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -1196,10 +1186,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>14</v>
@@ -1234,10 +1224,10 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>14</v>
@@ -1272,10 +1262,10 @@
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>14</v>
@@ -1310,10 +1300,10 @@
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>14</v>
@@ -1348,10 +1338,10 @@
     </row>
     <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>14</v>
@@ -1385,21 +1375,11 @@
       <c r="Z20" s="6"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -1423,21 +1403,11 @@
       <c r="Z21" s="6"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -1489,7 +1459,6 @@
       <c r="Z23" s="6"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
@@ -1545,6 +1514,7 @@
       <c r="Z25" s="6"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
@@ -28395,74 +28365,18 @@
       <c r="Y984" s="6"/>
       <c r="Z984" s="6"/>
     </row>
-    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A985" s="6"/>
-      <c r="B985" s="6"/>
-      <c r="C985" s="6"/>
-      <c r="D985" s="7"/>
-      <c r="E985" s="6"/>
-      <c r="F985" s="8"/>
-      <c r="G985" s="8"/>
-      <c r="H985" s="8"/>
-      <c r="I985" s="7"/>
-      <c r="J985" s="8"/>
-      <c r="K985" s="7"/>
-      <c r="L985" s="8"/>
-      <c r="M985" s="8"/>
-      <c r="N985" s="6"/>
-      <c r="O985" s="6"/>
-      <c r="P985" s="6"/>
-      <c r="Q985" s="6"/>
-      <c r="R985" s="6"/>
-      <c r="S985" s="6"/>
-      <c r="T985" s="6"/>
-      <c r="U985" s="6"/>
-      <c r="V985" s="6"/>
-      <c r="W985" s="6"/>
-      <c r="X985" s="6"/>
-      <c r="Y985" s="6"/>
-      <c r="Z985" s="6"/>
-    </row>
-    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A986" s="6"/>
-      <c r="B986" s="6"/>
-      <c r="C986" s="6"/>
-      <c r="D986" s="7"/>
-      <c r="E986" s="6"/>
-      <c r="F986" s="8"/>
-      <c r="G986" s="8"/>
-      <c r="H986" s="8"/>
-      <c r="I986" s="7"/>
-      <c r="J986" s="8"/>
-      <c r="K986" s="7"/>
-      <c r="L986" s="8"/>
-      <c r="M986" s="8"/>
-      <c r="N986" s="6"/>
-      <c r="O986" s="6"/>
-      <c r="P986" s="6"/>
-      <c r="Q986" s="6"/>
-      <c r="R986" s="6"/>
-      <c r="S986" s="6"/>
-      <c r="T986" s="6"/>
-      <c r="U986" s="6"/>
-      <c r="V986" s="6"/>
-      <c r="W986" s="6"/>
-      <c r="X986" s="6"/>
-      <c r="Y986" s="6"/>
-      <c r="Z986" s="6"/>
-    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C43:C986 C1:C31" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C41:C984 C1:C29" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E986" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E1:E984" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F986" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F1:F984" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"ratio,interval"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H986" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H1:H984" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"natural,whole,integer,real"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28475,7 +28389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
